--- a/data/trans_orig/P37C3_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2903</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9545</v>
+        <v>9228</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.005283688149224656</v>
+        <v>0.005283688149224657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001239231813959106</v>
+        <v>0.001197417127806411</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01737282222055436</v>
+        <v>0.01679521687620792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4393</v>
+        <v>4323</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002664567389208985</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009008155934921382</v>
+        <v>0.008864586370286719</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>4202</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1416</v>
+        <v>1510</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10218</v>
+        <v>11094</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004052120103591991</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001365733885615947</v>
+        <v>0.001456253473639344</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009852910641579711</v>
+        <v>0.01069686722512585</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7931</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3396</v>
+        <v>3697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15878</v>
+        <v>15165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0144341114589978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006180928207847941</v>
+        <v>0.006729203322246967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02889941100198135</v>
+        <v>0.02760074682668673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>3196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7830</v>
+        <v>9005</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006553139131113029</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001383875377199349</v>
+        <v>0.001366806617563826</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01605628258282829</v>
+        <v>0.01846636113146649</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -854,19 +854,19 @@
         <v>11126</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5819</v>
+        <v>5857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19712</v>
+        <v>18990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01072830535959516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005611168940496939</v>
+        <v>0.00564745052065773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0190071494024902</v>
+        <v>0.01831060619457978</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>17900</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11206</v>
+        <v>10943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27847</v>
+        <v>27244</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03257854480133102</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02039614393451706</v>
+        <v>0.01991785964747224</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05068429423146701</v>
+        <v>0.049585678099143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -904,19 +904,19 @@
         <v>10863</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6373</v>
+        <v>6182</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19260</v>
+        <v>18030</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.02227598333131464</v>
+        <v>0.02227598333131465</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0130691676508849</v>
+        <v>0.01267605982001751</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03949353813764991</v>
+        <v>0.03697269794373839</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -925,19 +925,19 @@
         <v>28763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20286</v>
+        <v>19707</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40188</v>
+        <v>40280</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0277340543569261</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.019560859248188</v>
+        <v>0.01900163746457813</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03875039373061063</v>
+        <v>0.03883896203260036</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>104425</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84876</v>
+        <v>86029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123936</v>
+        <v>123515</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1900612821120096</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1544806487340401</v>
+        <v>0.1565793869309623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2255718358906565</v>
+        <v>0.2248052363534276</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -975,19 +975,19 @@
         <v>79328</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67122</v>
+        <v>66659</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94057</v>
+        <v>94627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.162669559863335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1376401228081602</v>
+        <v>0.1366904244324702</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1928712758730192</v>
+        <v>0.1940418821818742</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>224</v>
@@ -996,19 +996,19 @@
         <v>183754</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160462</v>
+        <v>160894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>208439</v>
+        <v>208042</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1771810933283084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1547222609931992</v>
+        <v>0.1551389091333458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2009835717308081</v>
+        <v>0.2006003427883034</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>416271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>393975</v>
+        <v>397017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>435301</v>
+        <v>435892</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7576423734784367</v>
+        <v>0.7576423734784369</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7170613740904062</v>
+        <v>0.7225970621868419</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7922765935176227</v>
+        <v>0.7933532013134774</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>543</v>
@@ -1046,19 +1046,19 @@
         <v>392978</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>376940</v>
+        <v>376653</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>406062</v>
+        <v>406054</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8058367502850282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7729487256990237</v>
+        <v>0.7723591291806997</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.832666373878868</v>
+        <v>0.8326492421149959</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>963</v>
@@ -1067,19 +1067,19 @@
         <v>809250</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>784212</v>
+        <v>783295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>834597</v>
+        <v>833894</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7803044268515784</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7561624310931613</v>
+        <v>0.755277963122949</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8047452950670402</v>
+        <v>0.8040674595403886</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8333</v>
+        <v>8462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0031492717431692</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01736397152583898</v>
+        <v>0.01763101580357405</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8765</v>
+        <v>8894</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.004257133395084889</v>
+        <v>0.00425713339508489</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02079522435711839</v>
+        <v>0.02110170130501573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12075</v>
+        <v>11885</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003667280620384738</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01339568826372274</v>
+        <v>0.01318532529020633</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7051</v>
+        <v>7978</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004333221829567577</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01469111586198172</v>
+        <v>0.01662249535677868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1263,19 +1263,19 @@
         <v>4007</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1469</v>
+        <v>1481</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8448</v>
+        <v>8830</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.00950760809523077</v>
+        <v>0.009507608095230772</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003486095135905444</v>
+        <v>0.003512785638241172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02004309067049541</v>
+        <v>0.02095040934469354</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1284,19 +1284,19 @@
         <v>6087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2745</v>
+        <v>2516</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11526</v>
+        <v>11648</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006752637661066795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003044809866645542</v>
+        <v>0.002791732010714566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01278661346685622</v>
+        <v>0.01292198645316453</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>19515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11455</v>
+        <v>11843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30335</v>
+        <v>29446</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04066378591652808</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02386784653776073</v>
+        <v>0.02467689771005144</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06320797295699147</v>
+        <v>0.06135465575379896</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1334,19 +1334,19 @@
         <v>20103</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12817</v>
+        <v>12755</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29722</v>
+        <v>30358</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04769796394728482</v>
+        <v>0.04769796394728483</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03041092891195251</v>
+        <v>0.03026211524883352</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07051990181406785</v>
+        <v>0.07203019761321591</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -1355,19 +1355,19 @@
         <v>39619</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28402</v>
+        <v>29383</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54653</v>
+        <v>54030</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04395279466373563</v>
+        <v>0.04395279466373564</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03150904712423399</v>
+        <v>0.03259726877104999</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06063157024807216</v>
+        <v>0.05994096194238998</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>92571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76435</v>
+        <v>75118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111422</v>
+        <v>110805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1928877577593686</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.159264193629519</v>
+        <v>0.1565203240595266</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2321660486252235</v>
+        <v>0.2308803330158727</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>126</v>
@@ -1405,19 +1405,19 @@
         <v>87956</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74250</v>
+        <v>74493</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102046</v>
+        <v>104415</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2086885760110164</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.176170515650713</v>
+        <v>0.176745730028466</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2421192836968162</v>
+        <v>0.2477417461167342</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>223</v>
@@ -1426,19 +1426,19 @@
         <v>180527</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>160414</v>
+        <v>155913</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205235</v>
+        <v>201704</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2002758319899999</v>
+        <v>0.2002758319899998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1779629448583399</v>
+        <v>0.1729690719443655</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.227687224882657</v>
+        <v>0.2237701952158947</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>364245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344050</v>
+        <v>344707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>383243</v>
+        <v>383265</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7589659627513665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7168856598836727</v>
+        <v>0.7182540048080407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7985518458403602</v>
+        <v>0.7985964619678673</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -1476,19 +1476,19 @@
         <v>307608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>292520</v>
+        <v>290595</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>324004</v>
+        <v>324083</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7298487185513831</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6940513496712404</v>
+        <v>0.6894819748705928</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7687515292789858</v>
+        <v>0.7689397484861797</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>789</v>
@@ -1497,19 +1497,19 @@
         <v>671853</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>644120</v>
+        <v>647089</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>694866</v>
+        <v>698726</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7453514550648128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7145847846681935</v>
+        <v>0.7178779098889128</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7708824331743861</v>
+        <v>0.7751642798205207</v>
       </c>
     </row>
     <row r="15">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6363</v>
+        <v>6602</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004005732900962996</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01360405053140649</v>
+        <v>0.01411501685980264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1622,19 +1622,19 @@
         <v>2357</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10211</v>
+        <v>8879</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0126490168014029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0</v>
+        <v>0.003600024025974956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05479917197049303</v>
+        <v>0.0476506975574149</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1643,19 +1643,19 @@
         <v>4231</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1396</v>
+        <v>1531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10650</v>
+        <v>12704</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006468095211540824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002135093595843761</v>
+        <v>0.002340704456502051</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01628194084915674</v>
+        <v>0.01942355779264266</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>8732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3481</v>
+        <v>3448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18545</v>
+        <v>19885</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01866775263932297</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007441502713084456</v>
+        <v>0.007372237856044993</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03964945705810678</v>
+        <v>0.042513894354765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3855</v>
+        <v>3304</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003464685868645971</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02068679795691854</v>
+        <v>0.01773181438077599</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1714,19 +1714,19 @@
         <v>9377</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4163</v>
+        <v>4119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18287</v>
+        <v>18422</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01433659112102459</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006364015255195111</v>
+        <v>0.006297594419693396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02795897578992373</v>
+        <v>0.02816546084755237</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>33371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23260</v>
+        <v>22824</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47881</v>
+        <v>49143</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07134539894072989</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04972880460476035</v>
+        <v>0.04879633004738888</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1023686199465313</v>
+        <v>0.105065689849745</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1764,19 +1764,19 @@
         <v>9357</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5259</v>
+        <v>4996</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16641</v>
+        <v>16616</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.05021754428816253</v>
+        <v>0.05021754428816254</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02822108243669605</v>
+        <v>0.02681169466842478</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08930664781328515</v>
+        <v>0.08917191650542258</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>42</v>
@@ -1785,19 +1785,19 @@
         <v>42728</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30771</v>
+        <v>31363</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>57809</v>
+        <v>58532</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06532634025897116</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04704583357600565</v>
+        <v>0.04795131340164359</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08838378514434375</v>
+        <v>0.08948974341884651</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>107924</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>89987</v>
+        <v>91363</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127023</v>
+        <v>128378</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2307376146094597</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.192389879292805</v>
+        <v>0.1953313056446481</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2715726252580019</v>
+        <v>0.274468283017787</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -1835,19 +1835,19 @@
         <v>40169</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31330</v>
+        <v>31529</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49651</v>
+        <v>49773</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2155737774727467</v>
+        <v>0.2155737774727468</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1681366540391376</v>
+        <v>0.1692056696079614</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.266459916044654</v>
+        <v>0.2671157624951389</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>180</v>
@@ -1856,19 +1856,19 @@
         <v>148093</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>128809</v>
+        <v>126757</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169200</v>
+        <v>168045</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2264176291179172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1969353319429586</v>
+        <v>0.1937969421281795</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2586886265694436</v>
+        <v>0.2569224661799717</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>315834</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>294386</v>
+        <v>292585</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>335825</v>
+        <v>336127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6752435009095245</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.629389123264913</v>
+        <v>0.6255377415306324</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7179838736200242</v>
+        <v>0.7186307095500336</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -1906,19 +1906,19 @@
         <v>133807</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>122751</v>
+        <v>123889</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>143147</v>
+        <v>144210</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7180949755690417</v>
+        <v>0.7180949755690418</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6587635543273137</v>
+        <v>0.664866224874336</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7682202908439933</v>
+        <v>0.7739218745763112</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>537</v>
@@ -1927,19 +1927,19 @@
         <v>449641</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>424106</v>
+        <v>424067</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>471112</v>
+        <v>472150</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6874513442905461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6484111367966993</v>
+        <v>0.6483522601360386</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7202783383107664</v>
+        <v>0.7218650949471713</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4130</v>
+        <v>4170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0007368310504010937</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.003677269233205049</v>
+        <v>0.003712610909774508</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2052,19 +2052,19 @@
         <v>3711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1277</v>
+        <v>1114</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11415</v>
+        <v>10592</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.00432957649292885</v>
+        <v>0.004329576492928849</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001490287816717365</v>
+        <v>0.001300047408252839</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01331826204517124</v>
+        <v>0.01235796051932003</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2073,19 +2073,19 @@
         <v>4538</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1509</v>
+        <v>1674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11320</v>
+        <v>11270</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002291751487709981</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0007619449746738555</v>
+        <v>0.0008452917422596422</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005716022872514131</v>
+        <v>0.005690747212075588</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>9938</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4947</v>
+        <v>5187</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16660</v>
+        <v>16863</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008847463708655721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004404466932385863</v>
+        <v>0.00461826481626742</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01483178966726795</v>
+        <v>0.01501287514204528</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2123,19 +2123,19 @@
         <v>4252</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1898</v>
+        <v>1844</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8626</v>
+        <v>8304</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.004961378047972447</v>
+        <v>0.004961378047972446</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002214220421209302</v>
+        <v>0.002151249359480014</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0100644494775203</v>
+        <v>0.009689150894346747</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -2144,19 +2144,19 @@
         <v>14190</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9093</v>
+        <v>8482</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>22907</v>
+        <v>22222</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00716558724075933</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004591672079444238</v>
+        <v>0.004283010572619497</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01156714743249107</v>
+        <v>0.01122153474495316</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>54235</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40441</v>
+        <v>40631</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72078</v>
+        <v>73730</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04828358112232092</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03600373263736186</v>
+        <v>0.03617257125709609</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06416954475184589</v>
+        <v>0.06563972197100783</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -2194,19 +2194,19 @@
         <v>26815</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19080</v>
+        <v>18915</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37029</v>
+        <v>36388</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03128713129043152</v>
+        <v>0.03128713129043151</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0222619632559167</v>
+        <v>0.02206901093869545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04320400240324397</v>
+        <v>0.04245564011762308</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -2215,19 +2215,19 @@
         <v>81050</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>64563</v>
+        <v>64815</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100568</v>
+        <v>103371</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04092761125803075</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03260200077866372</v>
+        <v>0.0327294364524643</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0507837322165052</v>
+        <v>0.05219923461083554</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>275106</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>243937</v>
+        <v>245782</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>304577</v>
+        <v>307587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2449196019572545</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2171707083576109</v>
+        <v>0.2188130631172191</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.271157065436164</v>
+        <v>0.2738363083130425</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>262</v>
@@ -2265,19 +2265,19 @@
         <v>171050</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>152228</v>
+        <v>149100</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>191089</v>
+        <v>189273</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1995746672987571</v>
+        <v>0.199574667298757</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1776140330258369</v>
+        <v>0.173963915287713</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2229554049427158</v>
+        <v>0.2208360472783172</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>529</v>
@@ -2286,19 +2286,19 @@
         <v>446156</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>408400</v>
+        <v>409274</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>482030</v>
+        <v>484637</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.225294564014314</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2062290663279064</v>
+        <v>0.2066702799270939</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2434096400395422</v>
+        <v>0.2447261538621454</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>783144</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>748748</v>
+        <v>747109</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>815661</v>
+        <v>813830</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6972125221613678</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6665902804214296</v>
+        <v>0.6651319464882829</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7261617983731584</v>
+        <v>0.7245316822816188</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>912</v>
@@ -2336,19 +2336,19 @@
         <v>651245</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>629762</v>
+        <v>629593</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>670917</v>
+        <v>674882</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7598472468699101</v>
+        <v>0.7598472468699103</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7347819357557307</v>
+        <v>0.7345844783364687</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7827997697786118</v>
+        <v>0.7874267012080346</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1695</v>
@@ -2357,19 +2357,19 @@
         <v>1434389</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1390748</v>
+        <v>1392744</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1470875</v>
+        <v>1476218</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7243204859991859</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7022832025591141</v>
+        <v>0.7032910987273207</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7427445432738233</v>
+        <v>0.7454428466353732</v>
       </c>
     </row>
     <row r="27">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6021</v>
+        <v>6052</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002123832279797226</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01080911190242063</v>
+        <v>0.0108640033412347</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2912</v>
+        <v>2841</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.001127230359162003</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.003533462060607891</v>
+        <v>0.003447157638041193</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2503,19 +2503,19 @@
         <v>2112</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6371</v>
+        <v>7347</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.001529147153927768</v>
+        <v>0.001529147153927767</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0003165080519371945</v>
+        <v>0.0003135160679674175</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.004612195040106951</v>
+        <v>0.005318857430854422</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>8056</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3758</v>
+        <v>3846</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15659</v>
+        <v>16764</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0144616339278031</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006746509431885469</v>
+        <v>0.006904915364819567</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02810903081926459</v>
+        <v>0.03009372217991855</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2553,19 +2553,19 @@
         <v>6214</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3010</v>
+        <v>3023</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11735</v>
+        <v>11474</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.007538539718794486</v>
+        <v>0.007538539718794487</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003651473866821856</v>
+        <v>0.003667349251469324</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0142375763947763</v>
+        <v>0.01392077764535533</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -2574,19 +2574,19 @@
         <v>14270</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8249</v>
+        <v>8447</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23751</v>
+        <v>23620</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01033053497460598</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005971511976746062</v>
+        <v>0.006115422020959942</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0171946821802932</v>
+        <v>0.01709976935119939</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>48156</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36741</v>
+        <v>35522</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>64319</v>
+        <v>66491</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08644519280199195</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06595478919040862</v>
+        <v>0.06376627642872251</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1154599213851641</v>
+        <v>0.1193598550523754</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>61</v>
@@ -2624,19 +2624,19 @@
         <v>40213</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30635</v>
+        <v>30243</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>51720</v>
+        <v>50475</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04878723341921387</v>
+        <v>0.04878723341921388</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03716744150939847</v>
+        <v>0.03669125305523341</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06274880326349527</v>
+        <v>0.06123790725143431</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>105</v>
@@ -2645,19 +2645,19 @@
         <v>88368</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>71671</v>
+        <v>71450</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>110077</v>
+        <v>109199</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06397420629088804</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05188596676669773</v>
+        <v>0.05172638360774531</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07969040345440472</v>
+        <v>0.07905484379227802</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>135587</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>114511</v>
+        <v>114420</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>157328</v>
+        <v>158563</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2433956282086565</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2055620553751063</v>
+        <v>0.2053980932624231</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2824235038988176</v>
+        <v>0.2846399316487427</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>275</v>
@@ -2695,19 +2695,19 @@
         <v>171792</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>155035</v>
+        <v>153758</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>191689</v>
+        <v>190472</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.208423083165429</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1880933651340508</v>
+        <v>0.1865439069989453</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2325624962869209</v>
+        <v>0.2310859178430384</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>404</v>
@@ -2716,19 +2716,19 @@
         <v>307379</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>280560</v>
+        <v>278431</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>337480</v>
+        <v>338785</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2225270628162169</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.203111459168195</v>
+        <v>0.2015702623395653</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2443186190056062</v>
+        <v>0.2452632705269477</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>364083</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>339723</v>
+        <v>338553</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>387056</v>
+        <v>387139</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.6535737127817511</v>
+        <v>0.6535737127817512</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.609844402169107</v>
+        <v>0.607744943532422</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.69481337460395</v>
+        <v>0.694962122690677</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>933</v>
@@ -2766,19 +2766,19 @@
         <v>605099</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>584905</v>
+        <v>582447</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>625315</v>
+        <v>625526</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7341239133374006</v>
+        <v>0.7341239133374007</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7096242769194897</v>
+        <v>0.7066421665225513</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7586511119089956</v>
+        <v>0.7589072863446473</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1292</v>
@@ -2787,19 +2787,19 @@
         <v>969182</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>936939</v>
+        <v>938274</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1000596</v>
+        <v>1002480</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7016390487643615</v>
+        <v>0.7016390487643612</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6782971570327695</v>
+        <v>0.6792637440233744</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7243815967388209</v>
+        <v>0.7257452127345156</v>
       </c>
     </row>
     <row r="33">
@@ -2894,16 +2894,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8077</v>
+        <v>6772</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.006391046097632076</v>
+        <v>0.006391046097632077</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03483148459853608</v>
+        <v>0.02920449594346397</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4257</v>
+        <v>4208</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001469285351355845</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.005085419418028004</v>
+        <v>0.005026605872920523</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2933,19 +2933,19 @@
         <v>2712</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9039</v>
+        <v>9056</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002536863064242716</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.000499407152332703</v>
+        <v>0.0005025477624466429</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.008455690759686286</v>
+        <v>0.008470987908546107</v>
       </c>
     </row>
     <row r="35">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3746</v>
+        <v>3597</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.00306475709009746</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01615380690369621</v>
+        <v>0.01551014790831779</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2983,19 +2983,19 @@
         <v>2573</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>726</v>
+        <v>636</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7489</v>
+        <v>7296</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.00307413686789001</v>
+        <v>0.003074136867890009</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.000867335876930179</v>
+        <v>0.0007597713327101374</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.008945878884851727</v>
+        <v>0.008715691939233041</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -3004,19 +3004,19 @@
         <v>3284</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1163</v>
+        <v>1004</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7911</v>
+        <v>7916</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003072102302977294</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00108767061586639</v>
+        <v>0.0009390225372588249</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.007399870472022232</v>
+        <v>0.007405048326311587</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>18357</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8049</v>
+        <v>8123</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>38517</v>
+        <v>35223</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.07916730594283362</v>
+        <v>0.07916730594283361</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03471283289261815</v>
+        <v>0.03503086184094698</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.166105034649307</v>
+        <v>0.1519009778069509</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>46</v>
@@ -3054,19 +3054,19 @@
         <v>37248</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26099</v>
+        <v>26229</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>53104</v>
+        <v>52467</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.0444939851446271</v>
+        <v>0.04449398514462709</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03117588059638454</v>
+        <v>0.03133203611983255</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0634348001478829</v>
+        <v>0.0626739633562564</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>53</v>
@@ -3075,19 +3075,19 @@
         <v>55605</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>38940</v>
+        <v>40113</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>79412</v>
+        <v>79220</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05201496522151289</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03642597265210298</v>
+        <v>0.03752273816003057</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07428469246555938</v>
+        <v>0.07410504120007817</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>71401</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>50317</v>
+        <v>51688</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>93698</v>
+        <v>91689</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3079209746321331</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2169941487123072</v>
+        <v>0.2229077216151785</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4040783416242487</v>
+        <v>0.3954129857862744</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>275</v>
@@ -3125,19 +3125,19 @@
         <v>192188</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>170441</v>
+        <v>169710</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>215239</v>
+        <v>216974</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2295771901422751</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2035993584143601</v>
+        <v>0.2027260395068534</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2571116331647483</v>
+        <v>0.2591850199606444</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>310</v>
@@ -3146,19 +3146,19 @@
         <v>263590</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>232331</v>
+        <v>234170</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>294922</v>
+        <v>297974</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2465707179824621</v>
+        <v>0.2465707179824622</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2173308244797776</v>
+        <v>0.2190509209053383</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2758800057914723</v>
+        <v>0.2787348877876994</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>139930</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>114142</v>
+        <v>115067</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>163063</v>
+        <v>161577</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.603455916237304</v>
+        <v>0.6034559162373039</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.492241744634443</v>
+        <v>0.4962348808487245</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7032192297627092</v>
+        <v>0.6968106206090418</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>822</v>
@@ -3196,19 +3196,19 @@
         <v>603901</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>579176</v>
+        <v>578732</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>628585</v>
+        <v>628915</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.7213854024938519</v>
+        <v>0.7213854024938516</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6918499073400597</v>
+        <v>0.6913192423986529</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7508706600903807</v>
+        <v>0.7512649281357052</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>887</v>
@@ -3217,19 +3217,19 @@
         <v>743831</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>709573</v>
+        <v>707795</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>775050</v>
+        <v>775094</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.6958053514288051</v>
+        <v>0.695805351428805</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6637588808508674</v>
+        <v>0.6620959062098319</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7250080138857304</v>
+        <v>0.7250495727030083</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>9781</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4971</v>
+        <v>4529</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18812</v>
+        <v>18657</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002868861767594656</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001458017759065312</v>
+        <v>0.001328348199462982</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005517793250671401</v>
+        <v>0.005472297937400312</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>13</v>
@@ -3342,19 +3342,19 @@
         <v>11321</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5625</v>
+        <v>6382</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>20492</v>
+        <v>20960</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.00313246504505253</v>
+        <v>0.003132465045052531</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001556514829289207</v>
+        <v>0.001766030530985399</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.005670146127752507</v>
+        <v>0.0057996989694682</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>22</v>
@@ -3363,19 +3363,19 @@
         <v>21101</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>13233</v>
+        <v>13236</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>32355</v>
+        <v>33179</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003004503919200506</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00188425064137159</v>
+        <v>0.001884538120101794</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004606910943291825</v>
+        <v>0.00472418198561017</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>37446</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>26615</v>
+        <v>26656</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>53033</v>
+        <v>52528</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01098363535475768</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.007806640792355359</v>
+        <v>0.007818540034568829</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01555537673990049</v>
+        <v>0.01540735068455005</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>31</v>
@@ -3413,19 +3413,19 @@
         <v>20888</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>14531</v>
+        <v>14115</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28984</v>
+        <v>28975</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.005779816760394078</v>
+        <v>0.005779816760394079</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00402088518108602</v>
+        <v>0.003905721279867678</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008020132261367274</v>
+        <v>0.008017555054397317</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>69</v>
@@ -3434,19 +3434,19 @@
         <v>58334</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>44495</v>
+        <v>45827</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>73709</v>
+        <v>76182</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.00830591010978682</v>
+        <v>0.008305910109786818</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006335475246678557</v>
+        <v>0.006525007598418209</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0104949955713116</v>
+        <v>0.01084717519309189</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>191533</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>164983</v>
+        <v>161638</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>226581</v>
+        <v>222875</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05617993122784239</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04839224219229065</v>
+        <v>0.04741124104731502</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06646005737218406</v>
+        <v>0.06537291985298099</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>196</v>
@@ -3484,19 +3484,19 @@
         <v>144599</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>123813</v>
+        <v>124022</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>168228</v>
+        <v>169380</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.04001171520682981</v>
+        <v>0.04001171520682982</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03426007211330732</v>
+        <v>0.03431775785348685</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04654987608296321</v>
+        <v>0.04686859171937646</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>363</v>
@@ -3505,19 +3505,19 @@
         <v>336133</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>299007</v>
+        <v>303033</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>373994</v>
+        <v>378512</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.04786026377200513</v>
+        <v>0.04786026377200512</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0425740519791041</v>
+        <v>0.04314736563441359</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05325107267343798</v>
+        <v>0.05389437232580058</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>787015</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>731092</v>
+        <v>738933</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>840242</v>
+        <v>843972</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2308446211414192</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2144417027005793</v>
+        <v>0.2167415354737099</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2464569578086225</v>
+        <v>0.2475512516106797</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1125</v>
@@ -3555,19 +3555,19 @@
         <v>742483</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>700934</v>
+        <v>696495</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>786394</v>
+        <v>781010</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2054504646964694</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1939533852186766</v>
+        <v>0.1927251020053875</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2176009035734011</v>
+        <v>0.2161111047956835</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1870</v>
@@ -3576,19 +3576,19 @@
         <v>1529498</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1463404</v>
+        <v>1458149</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1603724</v>
+        <v>1600057</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2177775680621607</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2083667995119244</v>
+        <v>0.2076185923782558</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2283461701415128</v>
+        <v>0.2278241767095061</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>2383508</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2321146</v>
+        <v>2320961</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2445323</v>
+        <v>2441382</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.699122950508386</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6808311529047352</v>
+        <v>0.6807768834827206</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7172543849171534</v>
+        <v>0.7160984247573128</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3846</v>
@@ -3626,19 +3626,19 @@
         <v>2694638</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2650834</v>
+        <v>2649778</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2743973</v>
+        <v>2740432</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7456255382912542</v>
+        <v>0.7456255382912541</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7335046301065191</v>
+        <v>0.7332125752285945</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7592768931630788</v>
+        <v>0.7582972199506282</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6163</v>
@@ -3647,19 +3647,19 @@
         <v>5078146</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4995786</v>
+        <v>5003436</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5148108</v>
+        <v>5151336</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.723051754136847</v>
+        <v>0.7230517541368467</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7113250014663306</v>
+        <v>0.7124142486827245</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7330132679349283</v>
+        <v>0.7334728815087876</v>
       </c>
     </row>
     <row r="45">
